--- a/database/industries/lastic/pekavir/balancesheet/yearly.xlsx
+++ b/database/industries/lastic/pekavir/balancesheet/yearly.xlsx
@@ -192,6 +192,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,6 +221,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -241,6 +261,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -266,6 +301,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -289,6 +339,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -314,6 +379,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -339,6 +419,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -362,6 +457,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -374,25 +484,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/09</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/09</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/09</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/09</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/09</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/09</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/09</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/09</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/09</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/09</t>
         </is>
@@ -409,27 +544,52 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1392-11-17 (5)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1393-11-21 (6)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1394-11-21 (7)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1395-12-04 (9)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1396-12-03 (8)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1397-12-01 (10)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1398-11-28 (11)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1399-12-02 (8)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1400-12-02 (9)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>1401-05-31 (5)</t>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>1401-07-30 (6)</t>
         </is>
       </c>
     </row>
@@ -455,6 +615,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -480,6 +655,21 @@
       <c r="H11" s="14">
         <v/>
       </c>
+      <c r="I11" s="14">
+        <v/>
+      </c>
+      <c r="J11" s="14">
+        <v/>
+      </c>
+      <c r="K11" s="14">
+        <v/>
+      </c>
+      <c r="L11" s="14">
+        <v/>
+      </c>
+      <c r="M11" s="14">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="15" t="inlineStr">
@@ -491,18 +681,33 @@
         <v/>
       </c>
       <c r="D12" s="16">
+        <v>86966</v>
+      </c>
+      <c r="E12" s="16">
+        <v>351362</v>
+      </c>
+      <c r="F12" s="16">
+        <v>590608</v>
+      </c>
+      <c r="G12" s="16">
+        <v>33334</v>
+      </c>
+      <c r="H12" s="16">
+        <v>164230</v>
+      </c>
+      <c r="I12" s="16">
         <v>111492</v>
       </c>
-      <c r="E12" s="16">
+      <c r="J12" s="16">
         <v>369591</v>
       </c>
-      <c r="F12" s="16">
+      <c r="K12" s="16">
         <v>361793</v>
       </c>
-      <c r="G12" s="16">
+      <c r="L12" s="16">
         <v>2349738</v>
       </c>
-      <c r="H12" s="16">
+      <c r="M12" s="16">
         <v>581417</v>
       </c>
     </row>
@@ -516,18 +721,33 @@
         <v/>
       </c>
       <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>64000</v>
+      </c>
+      <c r="G13" s="12">
+        <v>125371</v>
+      </c>
+      <c r="H13" s="12">
+        <v>109038</v>
+      </c>
+      <c r="I13" s="12">
         <v>50000</v>
       </c>
-      <c r="E13" s="12">
+      <c r="J13" s="12">
         <v>70000</v>
       </c>
-      <c r="F13" s="12">
+      <c r="K13" s="12">
         <v>106000</v>
       </c>
-      <c r="G13" s="12">
+      <c r="L13" s="12">
         <v>58000</v>
       </c>
-      <c r="H13" s="12">
+      <c r="M13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -541,18 +761,33 @@
         <v/>
       </c>
       <c r="D14" s="16">
+        <v>413222</v>
+      </c>
+      <c r="E14" s="16">
+        <v>269667</v>
+      </c>
+      <c r="F14" s="16">
+        <v>456008</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1827369</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1381151</v>
+      </c>
+      <c r="I14" s="16">
         <v>1862682</v>
       </c>
-      <c r="E14" s="16">
+      <c r="J14" s="16">
         <v>1595332</v>
       </c>
-      <c r="F14" s="16">
+      <c r="K14" s="16">
         <v>1033892</v>
       </c>
-      <c r="G14" s="16">
+      <c r="L14" s="16">
         <v>2420728</v>
       </c>
-      <c r="H14" s="16">
+      <c r="M14" s="16">
         <v>5366986</v>
       </c>
     </row>
@@ -566,18 +801,33 @@
         <v/>
       </c>
       <c r="D15" s="12">
+        <v>437118</v>
+      </c>
+      <c r="E15" s="12">
+        <v>700101</v>
+      </c>
+      <c r="F15" s="12">
+        <v>559920</v>
+      </c>
+      <c r="G15" s="12">
+        <v>352860</v>
+      </c>
+      <c r="H15" s="12">
+        <v>372386</v>
+      </c>
+      <c r="I15" s="12">
         <v>580681</v>
       </c>
-      <c r="E15" s="12">
+      <c r="J15" s="12">
         <v>832755</v>
       </c>
-      <c r="F15" s="12">
+      <c r="K15" s="12">
         <v>979973</v>
       </c>
-      <c r="G15" s="12">
+      <c r="L15" s="12">
         <v>2136589</v>
       </c>
-      <c r="H15" s="12">
+      <c r="M15" s="12">
         <v>3309072</v>
       </c>
     </row>
@@ -591,18 +841,33 @@
         <v/>
       </c>
       <c r="D16" s="16">
+        <v>95792</v>
+      </c>
+      <c r="E16" s="16">
+        <v>108145</v>
+      </c>
+      <c r="F16" s="16">
+        <v>172929</v>
+      </c>
+      <c r="G16" s="16">
+        <v>108714</v>
+      </c>
+      <c r="H16" s="16">
+        <v>344089</v>
+      </c>
+      <c r="I16" s="16">
         <v>252718</v>
       </c>
-      <c r="E16" s="16">
+      <c r="J16" s="16">
         <v>581015</v>
       </c>
-      <c r="F16" s="16">
+      <c r="K16" s="16">
         <v>678287</v>
       </c>
-      <c r="G16" s="16">
+      <c r="L16" s="16">
         <v>2306578</v>
       </c>
-      <c r="H16" s="16">
+      <c r="M16" s="16">
         <v>2129458</v>
       </c>
     </row>
@@ -630,6 +895,21 @@
       <c r="H17" s="12">
         <v>0</v>
       </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="17" t="inlineStr">
@@ -641,18 +921,33 @@
         <v/>
       </c>
       <c r="D18" s="18">
+        <v>1033098</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1429275</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1843465</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2447648</v>
+      </c>
+      <c r="H18" s="18">
+        <v>2370894</v>
+      </c>
+      <c r="I18" s="18">
         <v>2857573</v>
       </c>
-      <c r="E18" s="18">
+      <c r="J18" s="18">
         <v>3448693</v>
       </c>
-      <c r="F18" s="18">
+      <c r="K18" s="18">
         <v>3159945</v>
       </c>
-      <c r="G18" s="18">
+      <c r="L18" s="18">
         <v>9271633</v>
       </c>
-      <c r="H18" s="18">
+      <c r="M18" s="18">
         <v>11386933</v>
       </c>
     </row>
@@ -666,18 +961,33 @@
         <v/>
       </c>
       <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1912</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1833</v>
+      </c>
+      <c r="I19" s="12">
         <v>1427</v>
       </c>
-      <c r="E19" s="12">
+      <c r="J19" s="12">
         <v>2247</v>
       </c>
-      <c r="F19" s="12">
+      <c r="K19" s="12">
         <v>1351</v>
       </c>
-      <c r="G19" s="12">
+      <c r="L19" s="12">
         <v>1091</v>
       </c>
-      <c r="H19" s="12">
+      <c r="M19" s="12">
         <v>2825</v>
       </c>
     </row>
@@ -691,18 +1001,33 @@
         <v/>
       </c>
       <c r="D20" s="16">
+        <v>19545</v>
+      </c>
+      <c r="E20" s="16">
+        <v>18919</v>
+      </c>
+      <c r="F20" s="16">
+        <v>17813</v>
+      </c>
+      <c r="G20" s="16">
+        <v>19241</v>
+      </c>
+      <c r="H20" s="16">
+        <v>30759</v>
+      </c>
+      <c r="I20" s="16">
         <v>30749</v>
       </c>
-      <c r="E20" s="16">
+      <c r="J20" s="16">
         <v>34826</v>
       </c>
-      <c r="F20" s="16">
+      <c r="K20" s="16">
         <v>38721</v>
       </c>
-      <c r="G20" s="16">
+      <c r="L20" s="16">
         <v>40414</v>
       </c>
-      <c r="H20" s="16">
+      <c r="M20" s="16">
         <v>86664</v>
       </c>
     </row>
@@ -715,19 +1040,40 @@
       <c r="C21" s="12">
         <v/>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G21" s="12">
         <v>0</v>
       </c>
       <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
         <v>0</v>
       </c>
     </row>
@@ -741,18 +1087,33 @@
         <v/>
       </c>
       <c r="D22" s="16">
+        <v>169339</v>
+      </c>
+      <c r="E22" s="16">
+        <v>192101</v>
+      </c>
+      <c r="F22" s="16">
+        <v>212476</v>
+      </c>
+      <c r="G22" s="16">
+        <v>268073</v>
+      </c>
+      <c r="H22" s="16">
+        <v>476069</v>
+      </c>
+      <c r="I22" s="16">
         <v>607346</v>
       </c>
-      <c r="E22" s="16">
+      <c r="J22" s="16">
         <v>787406</v>
       </c>
-      <c r="F22" s="16">
+      <c r="K22" s="16">
         <v>1288785</v>
       </c>
-      <c r="G22" s="16">
+      <c r="L22" s="16">
         <v>3044886</v>
       </c>
-      <c r="H22" s="16">
+      <c r="M22" s="16">
         <v>5634211</v>
       </c>
     </row>
@@ -766,18 +1127,33 @@
         <v/>
       </c>
       <c r="D23" s="12">
+        <v>8403</v>
+      </c>
+      <c r="E23" s="12">
+        <v>7801</v>
+      </c>
+      <c r="F23" s="12">
+        <v>6940</v>
+      </c>
+      <c r="G23" s="12">
+        <v>6269</v>
+      </c>
+      <c r="H23" s="12">
+        <v>6143</v>
+      </c>
+      <c r="I23" s="12">
         <v>6014</v>
       </c>
-      <c r="E23" s="12">
+      <c r="J23" s="12">
         <v>5920</v>
       </c>
-      <c r="F23" s="12">
+      <c r="K23" s="12">
         <v>30402</v>
       </c>
-      <c r="G23" s="12">
+      <c r="L23" s="12">
         <v>7745</v>
       </c>
-      <c r="H23" s="12">
+      <c r="M23" s="12">
         <v>86602</v>
       </c>
     </row>
@@ -790,15 +1166,11 @@
       <c r="C24" s="16">
         <v/>
       </c>
-      <c r="D24" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
       </c>
       <c r="F24" s="16" t="inlineStr">
         <is>
@@ -811,6 +1183,31 @@
         </is>
       </c>
       <c r="H24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -826,18 +1223,33 @@
         <v/>
       </c>
       <c r="D25" s="12">
+        <v>44799</v>
+      </c>
+      <c r="E25" s="12">
+        <v>23209</v>
+      </c>
+      <c r="F25" s="12">
+        <v>26170</v>
+      </c>
+      <c r="G25" s="12">
+        <v>17731</v>
+      </c>
+      <c r="H25" s="12">
+        <v>54179</v>
+      </c>
+      <c r="I25" s="12">
         <v>62872</v>
       </c>
-      <c r="E25" s="12">
+      <c r="J25" s="12">
         <v>25925</v>
       </c>
-      <c r="F25" s="12">
+      <c r="K25" s="12">
         <v>15627</v>
       </c>
-      <c r="G25" s="12">
+      <c r="L25" s="12">
         <v>35044</v>
       </c>
-      <c r="H25" s="12">
+      <c r="M25" s="12">
         <v>30068</v>
       </c>
     </row>
@@ -851,18 +1263,33 @@
         <v/>
       </c>
       <c r="D26" s="18">
+        <v>242086</v>
+      </c>
+      <c r="E26" s="18">
+        <v>242030</v>
+      </c>
+      <c r="F26" s="18">
+        <v>263399</v>
+      </c>
+      <c r="G26" s="18">
+        <v>313226</v>
+      </c>
+      <c r="H26" s="18">
+        <v>568983</v>
+      </c>
+      <c r="I26" s="18">
         <v>708408</v>
       </c>
-      <c r="E26" s="18">
+      <c r="J26" s="18">
         <v>856324</v>
       </c>
-      <c r="F26" s="18">
+      <c r="K26" s="18">
         <v>1374886</v>
       </c>
-      <c r="G26" s="18">
+      <c r="L26" s="18">
         <v>3129180</v>
       </c>
-      <c r="H26" s="18">
+      <c r="M26" s="18">
         <v>5840370</v>
       </c>
     </row>
@@ -876,18 +1303,33 @@
         <v/>
       </c>
       <c r="D27" s="20">
+        <v>1275184</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1671305</v>
+      </c>
+      <c r="F27" s="20">
+        <v>2106864</v>
+      </c>
+      <c r="G27" s="20">
+        <v>2760874</v>
+      </c>
+      <c r="H27" s="20">
+        <v>2939877</v>
+      </c>
+      <c r="I27" s="20">
         <v>3565981</v>
       </c>
-      <c r="E27" s="20">
+      <c r="J27" s="20">
         <v>4305017</v>
       </c>
-      <c r="F27" s="20">
+      <c r="K27" s="20">
         <v>4534831</v>
       </c>
-      <c r="G27" s="20">
+      <c r="L27" s="20">
         <v>12400813</v>
       </c>
-      <c r="H27" s="20">
+      <c r="M27" s="20">
         <v>17227303</v>
       </c>
     </row>
@@ -915,6 +1357,21 @@
       <c r="H28" s="14">
         <v/>
       </c>
+      <c r="I28" s="14">
+        <v/>
+      </c>
+      <c r="J28" s="14">
+        <v/>
+      </c>
+      <c r="K28" s="14">
+        <v/>
+      </c>
+      <c r="L28" s="14">
+        <v/>
+      </c>
+      <c r="M28" s="14">
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="15" t="inlineStr">
@@ -926,18 +1383,33 @@
         <v/>
       </c>
       <c r="D29" s="16">
+        <v>162581</v>
+      </c>
+      <c r="E29" s="16">
+        <v>175417</v>
+      </c>
+      <c r="F29" s="16">
+        <v>328753</v>
+      </c>
+      <c r="G29" s="16">
+        <v>832432</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1042341</v>
+      </c>
+      <c r="I29" s="16">
         <v>803424</v>
       </c>
-      <c r="E29" s="16">
+      <c r="J29" s="16">
         <v>962414</v>
       </c>
-      <c r="F29" s="16">
+      <c r="K29" s="16">
         <v>697713</v>
       </c>
-      <c r="G29" s="16">
+      <c r="L29" s="16">
         <v>2396182</v>
       </c>
-      <c r="H29" s="16">
+      <c r="M29" s="16">
         <v>1960863</v>
       </c>
     </row>
@@ -950,20 +1422,14 @@
       <c r="C30" s="12">
         <v/>
       </c>
-      <c r="D30" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F30" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
       </c>
       <c r="G30" s="12" t="inlineStr">
         <is>
@@ -971,6 +1437,31 @@
         </is>
       </c>
       <c r="H30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -986,18 +1477,33 @@
         <v/>
       </c>
       <c r="D31" s="16">
+        <v>9609</v>
+      </c>
+      <c r="E31" s="16">
+        <v>32662</v>
+      </c>
+      <c r="F31" s="16">
+        <v>32205</v>
+      </c>
+      <c r="G31" s="16">
+        <v>24654</v>
+      </c>
+      <c r="H31" s="16">
+        <v>70601</v>
+      </c>
+      <c r="I31" s="16">
         <v>15927</v>
       </c>
-      <c r="E31" s="16">
+      <c r="J31" s="16">
         <v>39432</v>
       </c>
-      <c r="F31" s="16">
+      <c r="K31" s="16">
         <v>304292</v>
       </c>
-      <c r="G31" s="16">
+      <c r="L31" s="16">
         <v>222616</v>
       </c>
-      <c r="H31" s="16">
+      <c r="M31" s="16">
         <v>844676</v>
       </c>
     </row>
@@ -1011,18 +1517,33 @@
         <v/>
       </c>
       <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>250584</v>
+      </c>
+      <c r="F32" s="12">
+        <v>414456</v>
+      </c>
+      <c r="G32" s="12">
+        <v>200943</v>
+      </c>
+      <c r="H32" s="12">
+        <v>173719</v>
+      </c>
+      <c r="I32" s="12">
         <v>109657</v>
       </c>
-      <c r="E32" s="12">
+      <c r="J32" s="12">
         <v>143566</v>
       </c>
-      <c r="F32" s="12">
+      <c r="K32" s="12">
         <v>176793</v>
       </c>
-      <c r="G32" s="12">
+      <c r="L32" s="12">
         <v>822476</v>
       </c>
-      <c r="H32" s="12">
+      <c r="M32" s="12">
         <v>957214</v>
       </c>
     </row>
@@ -1036,18 +1557,33 @@
         <v/>
       </c>
       <c r="D33" s="16">
+        <v>387722</v>
+      </c>
+      <c r="E33" s="16">
+        <v>157398</v>
+      </c>
+      <c r="F33" s="16">
+        <v>203375</v>
+      </c>
+      <c r="G33" s="16">
+        <v>14937</v>
+      </c>
+      <c r="H33" s="16">
+        <v>5744</v>
+      </c>
+      <c r="I33" s="16">
         <v>843384</v>
       </c>
-      <c r="E33" s="16">
+      <c r="J33" s="16">
         <v>929448</v>
       </c>
-      <c r="F33" s="16">
+      <c r="K33" s="16">
         <v>1013044</v>
       </c>
-      <c r="G33" s="16">
+      <c r="L33" s="16">
         <v>130134</v>
       </c>
-      <c r="H33" s="16">
+      <c r="M33" s="16">
         <v>73647</v>
       </c>
     </row>
@@ -1061,18 +1597,33 @@
         <v/>
       </c>
       <c r="D34" s="12">
+        <v>159856</v>
+      </c>
+      <c r="E34" s="12">
+        <v>164579</v>
+      </c>
+      <c r="F34" s="12">
+        <v>14119</v>
+      </c>
+      <c r="G34" s="12">
+        <v>29167</v>
+      </c>
+      <c r="H34" s="12">
+        <v>101569</v>
+      </c>
+      <c r="I34" s="12">
         <v>222648</v>
       </c>
-      <c r="E34" s="12">
+      <c r="J34" s="12">
         <v>638918</v>
       </c>
-      <c r="F34" s="12">
+      <c r="K34" s="12">
         <v>858588</v>
       </c>
-      <c r="G34" s="12">
+      <c r="L34" s="12">
         <v>3830830</v>
       </c>
-      <c r="H34" s="12">
+      <c r="M34" s="12">
         <v>5780330</v>
       </c>
     </row>
@@ -1085,19 +1636,40 @@
       <c r="C35" s="16">
         <v/>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="16">
+        <v>137510</v>
+      </c>
+      <c r="H35" s="16">
+        <v>145709</v>
+      </c>
+      <c r="I35" s="16">
         <v>104563</v>
       </c>
-      <c r="E35" s="16">
+      <c r="J35" s="16">
         <v>58573</v>
       </c>
-      <c r="F35" s="16">
+      <c r="K35" s="16">
         <v>40014</v>
       </c>
-      <c r="G35" s="16">
+      <c r="L35" s="16">
         <v>1002568</v>
       </c>
-      <c r="H35" s="16">
+      <c r="M35" s="16">
         <v>721236</v>
       </c>
     </row>
@@ -1125,6 +1697,21 @@
       <c r="H36" s="12">
         <v>0</v>
       </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" s="17" t="inlineStr">
@@ -1136,18 +1723,33 @@
         <v/>
       </c>
       <c r="D37" s="18">
+        <v>719768</v>
+      </c>
+      <c r="E37" s="18">
+        <v>780640</v>
+      </c>
+      <c r="F37" s="18">
+        <v>992908</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1239643</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1539683</v>
+      </c>
+      <c r="I37" s="18">
         <v>2099603</v>
       </c>
-      <c r="E37" s="18">
+      <c r="J37" s="18">
         <v>2772351</v>
       </c>
-      <c r="F37" s="18">
+      <c r="K37" s="18">
         <v>3090444</v>
       </c>
-      <c r="G37" s="18">
+      <c r="L37" s="18">
         <v>8404806</v>
       </c>
-      <c r="H37" s="18">
+      <c r="M37" s="18">
         <v>10337966</v>
       </c>
     </row>
@@ -1170,9 +1772,24 @@
         <v>0</v>
       </c>
       <c r="G38" s="12">
-        <v>0</v>
+        <v>62165</v>
       </c>
       <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1185,23 +1802,44 @@
       <c r="C39" s="16">
         <v/>
       </c>
-      <c r="D39" s="16">
-        <v>0</v>
-      </c>
-      <c r="E39" s="16">
-        <v>0</v>
+      <c r="D39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F39" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G39" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H39" s="16" t="inlineStr">
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1217,18 +1855,33 @@
         <v/>
       </c>
       <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>14119</v>
+      </c>
+      <c r="H40" s="12">
+        <v>12550</v>
+      </c>
+      <c r="I40" s="12">
         <v>40177</v>
       </c>
-      <c r="E40" s="12">
+      <c r="J40" s="12">
         <v>204291</v>
       </c>
-      <c r="F40" s="12">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-      <c r="H40" s="12">
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
         <v>45208</v>
       </c>
     </row>
@@ -1242,18 +1895,33 @@
         <v/>
       </c>
       <c r="D41" s="16">
+        <v>86003</v>
+      </c>
+      <c r="E41" s="16">
+        <v>118365</v>
+      </c>
+      <c r="F41" s="16">
+        <v>155635</v>
+      </c>
+      <c r="G41" s="16">
+        <v>211510</v>
+      </c>
+      <c r="H41" s="16">
+        <v>259576</v>
+      </c>
+      <c r="I41" s="16">
         <v>275673</v>
       </c>
-      <c r="E41" s="16">
+      <c r="J41" s="16">
         <v>256212</v>
       </c>
-      <c r="F41" s="16">
+      <c r="K41" s="16">
         <v>312327</v>
       </c>
-      <c r="G41" s="16">
+      <c r="L41" s="16">
         <v>372637</v>
       </c>
-      <c r="H41" s="16">
+      <c r="M41" s="16">
         <v>527673</v>
       </c>
     </row>
@@ -1267,18 +1935,33 @@
         <v/>
       </c>
       <c r="D42" s="20">
+        <v>86003</v>
+      </c>
+      <c r="E42" s="20">
+        <v>118365</v>
+      </c>
+      <c r="F42" s="20">
+        <v>155635</v>
+      </c>
+      <c r="G42" s="20">
+        <v>287794</v>
+      </c>
+      <c r="H42" s="20">
+        <v>272126</v>
+      </c>
+      <c r="I42" s="20">
         <v>315850</v>
       </c>
-      <c r="E42" s="20">
+      <c r="J42" s="20">
         <v>460503</v>
       </c>
-      <c r="F42" s="20">
+      <c r="K42" s="20">
         <v>312327</v>
       </c>
-      <c r="G42" s="20">
+      <c r="L42" s="20">
         <v>372637</v>
       </c>
-      <c r="H42" s="20">
+      <c r="M42" s="20">
         <v>572881</v>
       </c>
     </row>
@@ -1292,18 +1975,33 @@
         <v/>
       </c>
       <c r="D43" s="18">
+        <v>805771</v>
+      </c>
+      <c r="E43" s="18">
+        <v>899005</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1148543</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1527437</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1811809</v>
+      </c>
+      <c r="I43" s="18">
         <v>2415453</v>
       </c>
-      <c r="E43" s="18">
+      <c r="J43" s="18">
         <v>3232854</v>
       </c>
-      <c r="F43" s="18">
+      <c r="K43" s="18">
         <v>3402771</v>
       </c>
-      <c r="G43" s="18">
+      <c r="L43" s="18">
         <v>8777443</v>
       </c>
-      <c r="H43" s="18">
+      <c r="M43" s="18">
         <v>10910847</v>
       </c>
     </row>
@@ -1331,6 +2029,21 @@
       <c r="H44" s="14">
         <v/>
       </c>
+      <c r="I44" s="14">
+        <v/>
+      </c>
+      <c r="J44" s="14">
+        <v/>
+      </c>
+      <c r="K44" s="14">
+        <v/>
+      </c>
+      <c r="L44" s="14">
+        <v/>
+      </c>
+      <c r="M44" s="14">
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="15" t="inlineStr">
@@ -1342,18 +2055,33 @@
         <v/>
       </c>
       <c r="D45" s="16">
+        <v>200000</v>
+      </c>
+      <c r="E45" s="16">
+        <v>200000</v>
+      </c>
+      <c r="F45" s="16">
+        <v>200000</v>
+      </c>
+      <c r="G45" s="16">
+        <v>200000</v>
+      </c>
+      <c r="H45" s="16">
         <v>700000</v>
       </c>
-      <c r="E45" s="16">
+      <c r="I45" s="16">
         <v>700000</v>
       </c>
-      <c r="F45" s="16">
+      <c r="J45" s="16">
         <v>700000</v>
       </c>
-      <c r="G45" s="16">
+      <c r="K45" s="16">
+        <v>700000</v>
+      </c>
+      <c r="L45" s="16">
         <v>2180000</v>
       </c>
-      <c r="H45" s="16">
+      <c r="M45" s="16">
         <v>2180000</v>
       </c>
     </row>
@@ -1381,6 +2109,21 @@
       <c r="H46" s="12">
         <v>0</v>
       </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="15" t="inlineStr">
@@ -1401,9 +2144,24 @@
         <v>0</v>
       </c>
       <c r="G47" s="16">
-        <v>0</v>
+        <v>475971</v>
       </c>
       <c r="H47" s="16">
+        <v>0</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
         <v>962986</v>
       </c>
     </row>
@@ -1416,19 +2174,40 @@
       <c r="C48" s="12">
         <v/>
       </c>
-      <c r="D48" s="12">
-        <v>0</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0</v>
+      <c r="D48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G48" s="12">
         <v>0</v>
       </c>
       <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12">
         <v>-130408</v>
       </c>
     </row>
@@ -1451,13 +2230,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
         <v>40957</v>
       </c>
     </row>
@@ -1471,18 +2275,33 @@
         <v/>
       </c>
       <c r="D50" s="12">
+        <v>29272</v>
+      </c>
+      <c r="E50" s="12">
+        <v>29272</v>
+      </c>
+      <c r="F50" s="12">
+        <v>29272</v>
+      </c>
+      <c r="G50" s="12">
+        <v>29272</v>
+      </c>
+      <c r="H50" s="12">
+        <v>53091</v>
+      </c>
+      <c r="I50" s="12">
         <v>70000</v>
       </c>
-      <c r="E50" s="12">
+      <c r="J50" s="12">
         <v>70000</v>
       </c>
-      <c r="F50" s="12">
+      <c r="K50" s="12">
         <v>70000</v>
       </c>
-      <c r="G50" s="12">
+      <c r="L50" s="12">
         <v>175834</v>
       </c>
-      <c r="H50" s="12">
+      <c r="M50" s="12">
         <v>321312</v>
       </c>
     </row>
@@ -1510,6 +2329,21 @@
       <c r="H51" s="16">
         <v>25000</v>
       </c>
+      <c r="I51" s="16">
+        <v>25000</v>
+      </c>
+      <c r="J51" s="16">
+        <v>25000</v>
+      </c>
+      <c r="K51" s="16">
+        <v>25000</v>
+      </c>
+      <c r="L51" s="16">
+        <v>25000</v>
+      </c>
+      <c r="M51" s="16">
+        <v>25000</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" s="11" t="inlineStr">
@@ -1526,17 +2360,32 @@
       <c r="E52" s="12">
         <v>0</v>
       </c>
-      <c r="F52" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G52" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H52" s="12" t="inlineStr">
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M52" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1566,6 +2415,21 @@
       <c r="H53" s="16">
         <v>0</v>
       </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" s="11" t="inlineStr">
@@ -1582,17 +2446,32 @@
       <c r="E54" s="12">
         <v>0</v>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" s="12" t="inlineStr">
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M54" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1607,19 +2486,40 @@
       <c r="C55" s="16">
         <v/>
       </c>
-      <c r="D55" s="16">
-        <v>0</v>
-      </c>
-      <c r="E55" s="16">
-        <v>0</v>
-      </c>
-      <c r="F55" s="16">
-        <v>0</v>
+      <c r="D55" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E55" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F55" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G55" s="16">
         <v>0</v>
       </c>
       <c r="H55" s="16">
+        <v>0</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0</v>
+      </c>
+      <c r="M55" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1633,18 +2533,33 @@
         <v/>
       </c>
       <c r="D56" s="12">
+        <v>215141</v>
+      </c>
+      <c r="E56" s="12">
+        <v>518028</v>
+      </c>
+      <c r="F56" s="12">
+        <v>704049</v>
+      </c>
+      <c r="G56" s="12">
+        <v>503194</v>
+      </c>
+      <c r="H56" s="12">
+        <v>349977</v>
+      </c>
+      <c r="I56" s="12">
         <v>355528</v>
       </c>
-      <c r="E56" s="12">
+      <c r="J56" s="12">
         <v>277163</v>
       </c>
-      <c r="F56" s="12">
+      <c r="K56" s="12">
         <v>337060</v>
       </c>
-      <c r="G56" s="12">
+      <c r="L56" s="12">
         <v>1242536</v>
       </c>
-      <c r="H56" s="12">
+      <c r="M56" s="12">
         <v>2916609</v>
       </c>
     </row>
@@ -1658,18 +2573,33 @@
         <v/>
       </c>
       <c r="D57" s="18">
+        <v>469413</v>
+      </c>
+      <c r="E57" s="18">
+        <v>772300</v>
+      </c>
+      <c r="F57" s="18">
+        <v>958321</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1233437</v>
+      </c>
+      <c r="H57" s="18">
+        <v>1128068</v>
+      </c>
+      <c r="I57" s="18">
         <v>1150528</v>
       </c>
-      <c r="E57" s="18">
+      <c r="J57" s="18">
         <v>1072163</v>
       </c>
-      <c r="F57" s="18">
+      <c r="K57" s="18">
         <v>1132060</v>
       </c>
-      <c r="G57" s="18">
+      <c r="L57" s="18">
         <v>3623370</v>
       </c>
-      <c r="H57" s="18">
+      <c r="M57" s="18">
         <v>6316456</v>
       </c>
     </row>
@@ -1683,18 +2613,33 @@
         <v/>
       </c>
       <c r="D58" s="20">
+        <v>1275184</v>
+      </c>
+      <c r="E58" s="20">
+        <v>1671305</v>
+      </c>
+      <c r="F58" s="20">
+        <v>2106864</v>
+      </c>
+      <c r="G58" s="20">
+        <v>2760874</v>
+      </c>
+      <c r="H58" s="20">
+        <v>2939877</v>
+      </c>
+      <c r="I58" s="20">
         <v>3565981</v>
       </c>
-      <c r="E58" s="20">
+      <c r="J58" s="20">
         <v>4305017</v>
       </c>
-      <c r="F58" s="20">
+      <c r="K58" s="20">
         <v>4534831</v>
       </c>
-      <c r="G58" s="20">
+      <c r="L58" s="20">
         <v>12400813</v>
       </c>
-      <c r="H58" s="20">
+      <c r="M58" s="20">
         <v>17227303</v>
       </c>
     </row>
@@ -1718,6 +2663,21 @@
         <v/>
       </c>
       <c r="H59" s="2">
+        <v/>
+      </c>
+      <c r="I59" s="2">
+        <v/>
+      </c>
+      <c r="J59" s="2">
+        <v/>
+      </c>
+      <c r="K59" s="2">
+        <v/>
+      </c>
+      <c r="L59" s="2">
+        <v/>
+      </c>
+      <c r="M59" s="2">
         <v/>
       </c>
     </row>
